--- a/R_data_RoB.xlsx
+++ b/R_data_RoB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveplymouthac-my.sharepoint.com/personal/stephanie_riley_plymouth_ac_uk/Documents/Github/systematic-review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveplymouthac-my.sharepoint.com/personal/stephanie_riley_plymouth_ac_uk/Documents/Steph PhD Docs/Systematic review/Systematic Review Paper/methods-review-kidney-transplant-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{E06057D5-CE6E-48A7-B2B4-A6AB5999FD6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E2917011-2AA5-469C-934E-EF711B7150E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EBEB683-A765-41D5-A5AE-2C644C996C3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoB" sheetId="1" r:id="rId1"/>
@@ -4408,7 +4408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FBC58-C9F2-423A-B144-EA8CECC56C72}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -9753,7 +9753,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -12841,6 +12841,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089D5ED9EE65DB540B754B079D91E3302" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec17a5c308376be43256775232b138b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8c30475-6c32-48d0-bf2d-dceab5e3a971" xmlns:ns4="c815e11e-726b-461a-856a-435a266225cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd9e7fbb190edfa10e27309992adf2d9" ns3:_="" ns4:_="">
     <xsd:import namespace="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
@@ -13051,36 +13066,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF9573F-9B1E-42E1-81B0-833787485F89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE4A1983-5249-4927-A5A8-E44FB265B9EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
-    <ds:schemaRef ds:uri="c815e11e-726b-461a-856a-435a266225cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13103,9 +13092,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE4A1983-5249-4927-A5A8-E44FB265B9EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF9573F-9B1E-42E1-81B0-833787485F89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
+    <ds:schemaRef ds:uri="c815e11e-726b-461a-856a-435a266225cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/R_data_RoB.xlsx
+++ b/R_data_RoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveplymouthac-my.sharepoint.com/personal/stephanie_riley_plymouth_ac_uk/Documents/Steph PhD Docs/Systematic review/Systematic Review Paper/methods-review-kidney-transplant-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{36537A5B-0015-41C0-B086-18BC4F318707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{585E0C35-8743-42C2-BB68-B98422CBA600}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{36537A5B-0015-41C0-B086-18BC4F318707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7C9CAD9C-5328-49F7-BCBA-EB831ACF5A0B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoB" sheetId="1" r:id="rId1"/>
@@ -4410,8 +4410,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,7 +4475,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4829,1164 +4829,1242 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="H8">
+        <v>837</v>
       </c>
       <c r="I8">
-        <v>3406</v>
+        <v>837</v>
       </c>
       <c r="J8">
-        <v>2734</v>
-      </c>
-      <c r="K8" t="s">
-        <v>174</v>
+        <v>837</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="O8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P8">
-        <v>0.56000000000000005</v>
+        <v>0.66</v>
       </c>
       <c r="Q8">
-        <v>0.56000000000000005</v>
+        <v>0.66</v>
       </c>
       <c r="R8" t="s">
         <v>295</v>
       </c>
       <c r="S8">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" t="s">
-        <v>173</v>
+        <v>182</v>
+      </c>
+      <c r="H9">
+        <v>837</v>
       </c>
       <c r="I9">
-        <v>3406</v>
+        <v>837</v>
       </c>
       <c r="J9">
-        <v>2734</v>
-      </c>
-      <c r="K9" t="s">
-        <v>174</v>
+        <v>837</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="O9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P9">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="Q9">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="R9" t="s">
         <v>295</v>
       </c>
       <c r="S9">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2019</v>
+        <v>1986</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="H10">
+        <v>1200</v>
       </c>
       <c r="I10">
-        <v>6475</v>
+        <v>1200</v>
       </c>
       <c r="J10">
-        <v>6405</v>
-      </c>
-      <c r="K10" t="s">
-        <v>174</v>
+        <v>1200</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="O10" t="s">
-        <v>296</v>
-      </c>
-      <c r="P10">
-        <v>0.6</v>
-      </c>
-      <c r="Q10">
-        <v>0.65</v>
-      </c>
-      <c r="R10">
-        <v>1.2755102040816339E-2</v>
-      </c>
-      <c r="S10">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="P10" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>295</v>
+      </c>
+      <c r="R10" t="s">
+        <v>295</v>
+      </c>
+      <c r="S10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="B11">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" t="s">
-        <v>183</v>
+        <v>161</v>
+      </c>
+      <c r="H11">
+        <v>6324</v>
       </c>
       <c r="I11">
-        <v>6475</v>
+        <v>6324</v>
       </c>
       <c r="J11">
-        <v>6405</v>
+        <v>6324</v>
       </c>
       <c r="K11">
         <v>7</v>
       </c>
       <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
         <v>7</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>186</v>
+      <c r="N11" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="O11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P11">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="Q11">
-        <v>0.67</v>
-      </c>
-      <c r="R11">
-        <v>1.0204081632653071E-2</v>
+        <v>0.7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>295</v>
       </c>
       <c r="S11">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="I12">
-        <v>6475</v>
+        <v>59091</v>
       </c>
       <c r="J12">
-        <v>6405</v>
+        <v>41363</v>
       </c>
       <c r="K12">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>63</v>
+      </c>
+      <c r="M12">
+        <v>32</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>179</v>
       </c>
       <c r="O12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P12">
-        <v>0.67</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="Q12">
-        <v>0.72</v>
-      </c>
-      <c r="R12">
-        <v>1.2755102040816309E-2</v>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="R12" t="s">
+        <v>295</v>
       </c>
       <c r="S12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="I13">
-        <v>6475</v>
+        <v>59091</v>
       </c>
       <c r="J13">
-        <v>6405</v>
-      </c>
-      <c r="K13" t="s">
-        <v>174</v>
+        <v>41363</v>
+      </c>
+      <c r="K13">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <v>63</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="O13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P13">
-        <v>0.56000000000000005</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.61</v>
-      </c>
-      <c r="R13">
-        <v>1.2755102040816309E-2</v>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="R13" t="s">
+        <v>295</v>
       </c>
       <c r="S13">
-        <v>0.59</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="I14">
-        <v>6475</v>
+        <v>106019</v>
       </c>
       <c r="J14">
-        <v>6405</v>
+        <v>106019</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P14">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q14">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="R14">
-        <v>1.2755102040816339E-2</v>
+        <v>1.7857142857142846E-2</v>
       </c>
       <c r="S14">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="I15">
-        <v>6475</v>
+        <v>15125</v>
       </c>
       <c r="J15">
-        <v>6405</v>
+        <v>10086</v>
       </c>
       <c r="K15">
         <v>18</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P15">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="Q15">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="R15">
         <v>1.2755102040816309E-2</v>
       </c>
-      <c r="S15">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S15" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16">
+        <v>15125</v>
+      </c>
+      <c r="J16">
+        <v>10086</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>294</v>
+      </c>
+      <c r="P16">
+        <v>0.67</v>
+      </c>
+      <c r="Q16">
+        <v>0.73</v>
+      </c>
+      <c r="R16">
+        <v>1.5306122448979578E-2</v>
+      </c>
+      <c r="S16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="B16">
-        <v>2019</v>
-      </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16">
-        <v>6475</v>
-      </c>
-      <c r="J16">
-        <v>6405</v>
-      </c>
-      <c r="K16" t="s">
-        <v>174</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O16" t="s">
-        <v>296</v>
-      </c>
-      <c r="P16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Q16">
-        <v>0.62</v>
-      </c>
-      <c r="R16">
-        <v>1.0204081632653071E-2</v>
-      </c>
-      <c r="S16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>2019</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="I17">
-        <v>6475</v>
+        <v>15125</v>
       </c>
       <c r="J17">
-        <v>6405</v>
+        <v>10086</v>
       </c>
       <c r="K17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P17">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="Q17">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="R17">
-        <v>1.0204081632653071E-2</v>
+        <v>1.5306122448979578E-2</v>
       </c>
       <c r="S17">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="I18">
-        <v>6475</v>
+        <v>15125</v>
       </c>
       <c r="J18">
-        <v>6405</v>
+        <v>10086</v>
       </c>
       <c r="K18">
         <v>18</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P18">
+        <v>0.6</v>
+      </c>
+      <c r="Q18">
         <v>0.64</v>
       </c>
-      <c r="Q18">
-        <v>0.67</v>
-      </c>
       <c r="R18">
-        <v>7.6530612244898027E-3</v>
-      </c>
-      <c r="S18">
+        <v>1.0204081632653071E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>2017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" t="s">
+        <v>230</v>
+      </c>
+      <c r="I19">
+        <v>15125</v>
+      </c>
+      <c r="J19">
+        <v>10086</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19">
+        <v>0.6</v>
+      </c>
+      <c r="Q19">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>2019</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19">
+      <c r="R19">
+        <v>1.5306122448979605E-2</v>
+      </c>
+      <c r="S19">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" t="s">
-        <v>183</v>
-      </c>
-      <c r="I19">
-        <v>6475</v>
-      </c>
-      <c r="J19">
-        <v>6405</v>
-      </c>
-      <c r="K19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O19" t="s">
-        <v>296</v>
-      </c>
-      <c r="P19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q19">
-        <v>0.6</v>
-      </c>
-      <c r="R19">
-        <v>1.0204081632653041E-2</v>
-      </c>
-      <c r="S19">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
       <c r="B20">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="I20">
-        <v>6475</v>
+        <v>15125</v>
       </c>
       <c r="J20">
-        <v>6405</v>
+        <v>10086</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P20">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q20">
         <v>0.63</v>
       </c>
       <c r="R20">
-        <v>1.0204081632653071E-2</v>
+        <v>1.7857000000000001E-2</v>
       </c>
       <c r="S20">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="I21">
-        <v>6475</v>
+        <v>371</v>
       </c>
       <c r="J21">
-        <v>6405</v>
+        <v>259</v>
       </c>
       <c r="K21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="O21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P21">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="Q21">
-        <v>0.67</v>
-      </c>
-      <c r="R21">
-        <v>1.0204081632653071E-2</v>
+        <v>0.74</v>
+      </c>
+      <c r="R21" t="s">
+        <v>295</v>
       </c>
       <c r="S21">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="H22">
-        <v>4983</v>
+        <v>785</v>
       </c>
       <c r="I22">
-        <v>4983</v>
+        <v>785</v>
       </c>
       <c r="J22">
-        <v>4983</v>
-      </c>
-      <c r="K22" t="s">
-        <v>174</v>
+        <v>785</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>16</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P22">
-        <v>0.64844000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q22">
-        <v>0.69156000000000006</v>
+        <v>0.67</v>
       </c>
       <c r="R22">
-        <v>1.0999999999999999E-2</v>
+        <v>2.295918367346941E-2</v>
       </c>
       <c r="S22">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="H23">
-        <v>4983</v>
+        <v>785</v>
       </c>
       <c r="I23">
-        <v>4983</v>
+        <v>785</v>
       </c>
       <c r="J23">
-        <v>4983</v>
+        <v>785</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>164</v>
       </c>
       <c r="O23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P23">
-        <v>0.65844000000000003</v>
+        <v>0.61</v>
       </c>
       <c r="Q23">
-        <v>0.70156000000000007</v>
+        <v>0.71</v>
       </c>
       <c r="R23">
-        <v>1.0999999999999999E-2</v>
+        <v>2.5510204081632647E-2</v>
       </c>
       <c r="S23">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H24">
-        <v>4983</v>
+        <v>20085</v>
       </c>
       <c r="I24">
-        <v>4983</v>
+        <v>20085</v>
       </c>
       <c r="J24">
-        <v>4983</v>
+        <v>20085</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P24">
-        <v>0.66843999999999992</v>
+        <v>0.71</v>
       </c>
       <c r="Q24">
-        <v>0.71155999999999997</v>
-      </c>
-      <c r="R24">
-        <v>1.0999999999999999E-2</v>
+        <v>0.71</v>
+      </c>
+      <c r="R24" t="s">
+        <v>295</v>
       </c>
       <c r="S24">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>2020</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
         <v>161</v>
       </c>
       <c r="H25">
-        <v>935</v>
+        <v>6662</v>
       </c>
       <c r="I25">
-        <v>935</v>
+        <v>6662</v>
       </c>
       <c r="J25">
-        <v>935</v>
-      </c>
-      <c r="K25" t="s">
-        <v>174</v>
+        <v>6662</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s">
         <v>296</v>
       </c>
       <c r="P25">
-        <v>0.56999999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="Q25">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R25" t="s">
-        <v>295</v>
+        <v>0.71</v>
+      </c>
+      <c r="R25">
+        <v>1.2755102040816309E-2</v>
       </c>
       <c r="S25">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>2020</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H26">
-        <v>935</v>
+        <v>6662</v>
       </c>
       <c r="I26">
-        <v>935</v>
+        <v>6662</v>
       </c>
       <c r="J26">
-        <v>935</v>
+        <v>6662</v>
       </c>
       <c r="K26">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>11</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O26" t="s">
         <v>296</v>
       </c>
       <c r="P26">
-        <v>0.64600000000000002</v>
+        <v>0.59</v>
       </c>
       <c r="Q26">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="R26" t="s">
-        <v>295</v>
+        <v>0.68</v>
+      </c>
+      <c r="R26">
+        <v>2.295918367346941E-2</v>
       </c>
       <c r="S26">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27">
-        <v>935</v>
+        <v>193</v>
+      </c>
+      <c r="H27" t="s">
+        <v>275</v>
       </c>
       <c r="I27">
-        <v>935</v>
+        <v>10670</v>
       </c>
       <c r="J27">
-        <v>935</v>
-      </c>
-      <c r="K27" t="s">
-        <v>174</v>
+        <v>7620</v>
+      </c>
+      <c r="K27">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P27">
-        <v>0.71</v>
+        <v>0.59843999999999997</v>
       </c>
       <c r="Q27">
-        <v>0.71</v>
-      </c>
-      <c r="R27" t="s">
-        <v>295</v>
+        <v>0.64156000000000002</v>
+      </c>
+      <c r="R27">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="S27">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="H28">
-        <v>935</v>
+        <v>39108</v>
       </c>
       <c r="I28">
-        <v>935</v>
+        <v>39108</v>
       </c>
       <c r="J28">
-        <v>935</v>
+        <v>39108</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P28">
-        <v>0.73499999999999999</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="Q28">
-        <v>0.73499999999999999</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="R28" t="s">
         <v>295</v>
       </c>
       <c r="S28">
-        <v>0.73499999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -5995,57 +6073,57 @@
         <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H29">
-        <v>837</v>
+        <v>39108</v>
       </c>
       <c r="I29">
-        <v>837</v>
+        <v>39108</v>
       </c>
       <c r="J29">
-        <v>837</v>
+        <v>39108</v>
       </c>
       <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
         <v>13</v>
       </c>
-      <c r="L29">
-        <v>15</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P29">
-        <v>0.77</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="Q29">
-        <v>0.77</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="R29" t="s">
         <v>295</v>
       </c>
       <c r="S29">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -6054,131 +6132,131 @@
         <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="H30">
-        <v>837</v>
+        <v>156069</v>
       </c>
       <c r="I30">
-        <v>837</v>
+        <v>156069</v>
       </c>
       <c r="J30">
-        <v>837</v>
+        <v>156069</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="O30" t="s">
-        <v>297</v>
-      </c>
-      <c r="P30">
-        <v>0.66</v>
-      </c>
-      <c r="Q30">
-        <v>0.66</v>
+        <v>294</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.65200000000000002</v>
       </c>
       <c r="R30" t="s">
         <v>295</v>
       </c>
-      <c r="S30">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>1986</v>
+        <v>2018</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="G31" t="s">
         <v>172</v>
       </c>
-      <c r="H31">
-        <v>1200</v>
+      <c r="H31" t="s">
+        <v>173</v>
       </c>
       <c r="I31">
-        <v>1200</v>
+        <v>3406</v>
       </c>
       <c r="J31">
-        <v>1200</v>
-      </c>
-      <c r="M31">
-        <v>9</v>
+        <v>2734</v>
+      </c>
+      <c r="K31" t="s">
+        <v>174</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s">
-        <v>295</v>
-      </c>
-      <c r="P31" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="P31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q31">
+        <v>0.56000000000000005</v>
       </c>
       <c r="R31" t="s">
         <v>295</v>
       </c>
-      <c r="S31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32">
-        <v>140</v>
+        <v>161</v>
+      </c>
+      <c r="H32" t="s">
+        <v>173</v>
       </c>
       <c r="I32">
-        <v>140</v>
+        <v>3406</v>
       </c>
       <c r="J32">
-        <v>140</v>
+        <v>2734</v>
       </c>
       <c r="K32" t="s">
         <v>174</v>
@@ -6187,119 +6265,122 @@
         <v>245</v>
       </c>
       <c r="O32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P32">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
       <c r="Q32">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
       <c r="R32" t="s">
         <v>295</v>
       </c>
       <c r="S32">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>124</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H33">
-        <v>140</v>
+        <v>4983</v>
       </c>
       <c r="I33">
-        <v>140</v>
+        <v>4983</v>
       </c>
       <c r="J33">
-        <v>140</v>
+        <v>4983</v>
       </c>
       <c r="K33" t="s">
         <v>174</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="O33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P33">
-        <v>0.81</v>
+        <v>0.64844000000000002</v>
       </c>
       <c r="Q33">
-        <v>0.81</v>
-      </c>
-      <c r="R33" t="s">
-        <v>295</v>
+        <v>0.69156000000000006</v>
+      </c>
+      <c r="R33">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="S33">
-        <v>0.81</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G34" t="s">
         <v>182</v>
       </c>
-      <c r="H34">
-        <v>140</v>
+      <c r="H34" t="s">
+        <v>183</v>
       </c>
       <c r="I34">
-        <v>140</v>
+        <v>6475</v>
       </c>
       <c r="J34">
-        <v>140</v>
+        <v>6405</v>
+      </c>
+      <c r="K34" t="s">
+        <v>174</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>245</v>
       </c>
       <c r="O34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P34">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="Q34">
-        <v>0.63</v>
-      </c>
-      <c r="R34" t="s">
-        <v>295</v>
+        <v>0.65</v>
+      </c>
+      <c r="R34">
+        <v>1.2755102040816339E-2</v>
       </c>
       <c r="S34">
         <v>0.63</v>
@@ -6307,13 +6388,13 @@
     </row>
     <row r="35" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -6322,340 +6403,322 @@
         <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G35" t="s">
         <v>182</v>
       </c>
-      <c r="H35">
-        <v>140</v>
+      <c r="H35" t="s">
+        <v>183</v>
       </c>
       <c r="I35">
-        <v>140</v>
+        <v>6475</v>
       </c>
       <c r="J35">
-        <v>140</v>
+        <v>6405</v>
+      </c>
+      <c r="K35" t="s">
+        <v>174</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>245</v>
       </c>
       <c r="O35" t="s">
-        <v>298</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="R35" t="s">
-        <v>295</v>
-      </c>
-      <c r="S35" s="1">
+        <v>296</v>
+      </c>
+      <c r="P35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q35">
+        <v>0.61</v>
+      </c>
+      <c r="R35">
+        <v>1.2755102040816309E-2</v>
+      </c>
+      <c r="S35">
         <v>0.59</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36">
-        <v>6324</v>
+        <v>193</v>
+      </c>
+      <c r="H36" t="s">
+        <v>183</v>
       </c>
       <c r="I36">
-        <v>6324</v>
+        <v>6475</v>
       </c>
       <c r="J36">
-        <v>6324</v>
-      </c>
-      <c r="K36">
-        <v>7</v>
-      </c>
-      <c r="L36">
-        <v>13</v>
-      </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36" s="4" t="s">
+        <v>6405</v>
+      </c>
+      <c r="K36" t="s">
+        <v>174</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>245</v>
       </c>
       <c r="O36" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P36">
-        <v>0.7</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q36">
-        <v>0.7</v>
-      </c>
-      <c r="R36" t="s">
-        <v>295</v>
+        <v>0.62</v>
+      </c>
+      <c r="R36">
+        <v>1.0204081632653071E-2</v>
       </c>
       <c r="S36">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G37" t="s">
         <v>193</v>
       </c>
       <c r="H37" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="I37">
-        <v>59091</v>
+        <v>6475</v>
       </c>
       <c r="J37">
-        <v>41363</v>
-      </c>
-      <c r="K37">
-        <v>45</v>
-      </c>
-      <c r="L37">
-        <v>63</v>
-      </c>
-      <c r="M37">
-        <v>32</v>
+        <v>6405</v>
+      </c>
+      <c r="K37" t="s">
+        <v>174</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="O37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P37">
-        <v>0.64900000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q37">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="R37" t="s">
-        <v>295</v>
+        <v>0.6</v>
+      </c>
+      <c r="R37">
+        <v>1.0204081632653041E-2</v>
       </c>
       <c r="S37">
-        <v>0.64900000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>193</v>
-      </c>
-      <c r="H38" t="s">
-        <v>218</v>
+        <v>161</v>
+      </c>
+      <c r="H38">
+        <v>935</v>
       </c>
       <c r="I38">
-        <v>59091</v>
+        <v>935</v>
       </c>
       <c r="J38">
-        <v>41363</v>
-      </c>
-      <c r="K38">
-        <v>45</v>
-      </c>
-      <c r="L38">
-        <v>63</v>
-      </c>
-      <c r="M38">
-        <v>11</v>
+        <v>935</v>
+      </c>
+      <c r="K38" t="s">
+        <v>174</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="O38" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P38">
-        <v>0.63600000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Q38">
-        <v>0.63600000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R38" t="s">
         <v>295</v>
       </c>
       <c r="S38">
-        <v>0.63600000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C39" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39">
+        <v>935</v>
+      </c>
+      <c r="I39">
+        <v>935</v>
+      </c>
+      <c r="J39">
+        <v>935</v>
+      </c>
+      <c r="K39" t="s">
+        <v>174</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O39" t="s">
+        <v>296</v>
+      </c>
+      <c r="P39">
+        <v>0.71</v>
+      </c>
+      <c r="Q39">
+        <v>0.71</v>
+      </c>
+      <c r="R39" t="s">
+        <v>295</v>
+      </c>
+      <c r="S39">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>2020</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40">
         <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" t="s">
-        <v>223</v>
-      </c>
-      <c r="I39">
-        <v>106019</v>
-      </c>
-      <c r="J39">
-        <v>106019</v>
-      </c>
-      <c r="K39">
-        <v>25</v>
-      </c>
-      <c r="L39">
-        <v>25</v>
-      </c>
-      <c r="M39">
-        <v>11</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O39" t="s">
-        <v>294</v>
-      </c>
-      <c r="P39">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Q39">
-        <v>0.62</v>
-      </c>
-      <c r="R39">
-        <v>1.7857142857142846E-2</v>
-      </c>
-      <c r="S39">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>2016</v>
-      </c>
-      <c r="C40" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
       </c>
       <c r="E40" t="s">
         <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H40">
-        <v>69994</v>
+        <v>140</v>
       </c>
       <c r="I40">
-        <v>69994</v>
+        <v>140</v>
       </c>
       <c r="J40">
-        <v>69994</v>
+        <v>140</v>
+      </c>
+      <c r="K40" t="s">
+        <v>174</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>245</v>
       </c>
       <c r="O40" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P40">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="Q40">
-        <v>0.61</v>
-      </c>
-      <c r="R40">
-        <v>1.7857142857142846E-2</v>
+        <v>0.45</v>
+      </c>
+      <c r="R40" t="s">
+        <v>295</v>
       </c>
       <c r="S40">
-        <v>0.57999999999999996</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F41" t="s">
         <v>160</v>
@@ -6663,221 +6726,188 @@
       <c r="G41" t="s">
         <v>182</v>
       </c>
-      <c r="H41" t="s">
-        <v>230</v>
+      <c r="H41">
+        <v>140</v>
       </c>
       <c r="I41">
-        <v>15125</v>
+        <v>140</v>
       </c>
       <c r="J41">
-        <v>10086</v>
-      </c>
-      <c r="K41">
-        <v>18</v>
-      </c>
-      <c r="L41">
-        <v>44</v>
-      </c>
-      <c r="M41">
-        <v>23</v>
+        <v>140</v>
+      </c>
+      <c r="K41" t="s">
+        <v>174</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="O41" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P41">
-        <v>0.67</v>
+        <v>0.81</v>
       </c>
       <c r="Q41">
-        <v>0.73</v>
-      </c>
-      <c r="R41">
-        <v>1.5306122448979578E-2</v>
+        <v>0.81</v>
+      </c>
+      <c r="R41" t="s">
+        <v>295</v>
       </c>
       <c r="S41">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G42" t="s">
-        <v>193</v>
-      </c>
-      <c r="H42" t="s">
-        <v>230</v>
+        <v>182</v>
+      </c>
+      <c r="H42">
+        <v>140</v>
       </c>
       <c r="I42">
-        <v>15125</v>
+        <v>140</v>
       </c>
       <c r="J42">
-        <v>10086</v>
-      </c>
-      <c r="K42">
-        <v>18</v>
-      </c>
-      <c r="L42">
-        <v>44</v>
-      </c>
-      <c r="M42">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="O42" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P42">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="Q42">
-        <v>0.72</v>
-      </c>
-      <c r="R42">
-        <v>1.5306122448979578E-2</v>
+        <v>0.63</v>
+      </c>
+      <c r="R42" t="s">
+        <v>295</v>
       </c>
       <c r="S42">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F43" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
       </c>
-      <c r="H43" t="s">
-        <v>230</v>
+      <c r="H43">
+        <v>140</v>
       </c>
       <c r="I43">
-        <v>15125</v>
+        <v>140</v>
       </c>
       <c r="J43">
-        <v>10086</v>
-      </c>
-      <c r="K43">
-        <v>18</v>
-      </c>
-      <c r="L43">
-        <v>30</v>
-      </c>
-      <c r="M43">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="O43" t="s">
-        <v>294</v>
-      </c>
-      <c r="P43">
-        <v>0.6</v>
-      </c>
-      <c r="Q43">
-        <v>0.66</v>
-      </c>
-      <c r="R43">
-        <v>1.5306122448979605E-2</v>
-      </c>
-      <c r="S43">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="R43" t="s">
+        <v>295</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G44" t="s">
         <v>193</v>
       </c>
-      <c r="H44" t="s">
-        <v>230</v>
+      <c r="H44">
+        <v>69994</v>
       </c>
       <c r="I44">
-        <v>15125</v>
+        <v>69994</v>
       </c>
       <c r="J44">
-        <v>10086</v>
-      </c>
-      <c r="K44">
-        <v>18</v>
-      </c>
-      <c r="L44">
-        <v>30</v>
-      </c>
-      <c r="M44">
-        <v>20</v>
+        <v>69994</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="O44" t="s">
         <v>294</v>
       </c>
       <c r="P44">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="Q44">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="R44">
-        <v>1.7857000000000001E-2</v>
+        <v>1.7857142857142846E-2</v>
       </c>
       <c r="S44">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -6888,7 +6918,7 @@
         <v>229</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
         <v>124</v>
@@ -6897,7 +6927,7 @@
         <v>160</v>
       </c>
       <c r="G45" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H45">
         <v>5042</v>
@@ -6915,19 +6945,19 @@
         <v>294</v>
       </c>
       <c r="P45">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="Q45">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="R45">
-        <v>1.2755102040816339E-2</v>
-      </c>
-      <c r="S45">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>1.2755102040816309E-2</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -6938,7 +6968,7 @@
         <v>229</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
         <v>124</v>
@@ -6947,7 +6977,7 @@
         <v>160</v>
       </c>
       <c r="G46" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H46">
         <v>5042</v>
@@ -6965,19 +6995,19 @@
         <v>294</v>
       </c>
       <c r="P46">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="Q46">
+        <v>0.66</v>
+      </c>
+      <c r="R46">
+        <v>1.2755102040816339E-2</v>
+      </c>
+      <c r="S46">
         <v>0.63</v>
       </c>
-      <c r="R46">
-        <v>1.0204E-2</v>
-      </c>
-      <c r="S46" s="1">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -6988,7 +7018,7 @@
         <v>229</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>124</v>
@@ -6997,7 +7027,7 @@
         <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H47">
         <v>5042</v>
@@ -7009,22 +7039,22 @@
         <v>5042</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O47" t="s">
         <v>294</v>
       </c>
       <c r="P47">
+        <v>0.59</v>
+      </c>
+      <c r="Q47">
         <v>0.63</v>
       </c>
-      <c r="Q47">
-        <v>0.69</v>
-      </c>
       <c r="R47">
-        <v>1.5306122448979578E-2</v>
+        <v>1.0204E-2</v>
       </c>
       <c r="S47" s="1">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -7038,7 +7068,7 @@
         <v>229</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>124</v>
@@ -7047,7 +7077,7 @@
         <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H48">
         <v>5042</v>
@@ -7065,19 +7095,19 @@
         <v>294</v>
       </c>
       <c r="P48">
+        <v>0.5</v>
+      </c>
+      <c r="Q48">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q48">
-        <v>0.62</v>
-      </c>
       <c r="R48">
-        <v>1.2755102040816339E-2</v>
+        <v>1.7857142857142846E-2</v>
       </c>
       <c r="S48" s="1">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -7088,7 +7118,7 @@
         <v>229</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
         <v>124</v>
@@ -7109,25 +7139,25 @@
         <v>5042</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O49" t="s">
         <v>294</v>
       </c>
       <c r="P49">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="Q49">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="R49">
-        <v>1.2755102040816309E-2</v>
+        <v>1.5306122448979578E-2</v>
       </c>
       <c r="S49" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7138,7 +7168,7 @@
         <v>229</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>124</v>
@@ -7159,25 +7189,25 @@
         <v>5042</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O50" t="s">
         <v>294</v>
       </c>
       <c r="P50">
-        <v>0.65</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Q50">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="R50">
-        <v>1.2755102040816309E-2</v>
+        <v>1.2755102040816339E-2</v>
       </c>
       <c r="S50" s="1">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -7188,10 +7218,10 @@
         <v>229</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s">
         <v>160</v>
@@ -7199,41 +7229,32 @@
       <c r="G51" t="s">
         <v>161</v>
       </c>
-      <c r="H51" t="s">
-        <v>230</v>
+      <c r="H51">
+        <v>5042</v>
       </c>
       <c r="I51">
-        <v>15125</v>
+        <v>5042</v>
       </c>
       <c r="J51">
-        <v>10086</v>
-      </c>
-      <c r="K51">
-        <v>18</v>
-      </c>
-      <c r="L51">
-        <v>44</v>
-      </c>
-      <c r="M51">
-        <v>19</v>
+        <v>5042</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O51" t="s">
         <v>294</v>
       </c>
       <c r="P51">
-        <v>0.64</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q51">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="R51">
-        <v>1.2755102040816309E-2</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0.66</v>
+        <v>1.2755102040816339E-2</v>
+      </c>
+      <c r="S51">
+        <v>0.61</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7247,34 +7268,25 @@
         <v>229</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
         <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
-      </c>
-      <c r="H52" t="s">
-        <v>230</v>
+        <v>182</v>
+      </c>
+      <c r="H52">
+        <v>5042</v>
       </c>
       <c r="I52">
-        <v>15125</v>
+        <v>5042</v>
       </c>
       <c r="J52">
-        <v>10086</v>
-      </c>
-      <c r="K52">
-        <v>18</v>
-      </c>
-      <c r="L52">
-        <v>30</v>
-      </c>
-      <c r="M52">
-        <v>20</v>
+        <v>5042</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>169</v>
@@ -7283,16 +7295,16 @@
         <v>294</v>
       </c>
       <c r="P52">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="Q52">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="R52">
-        <v>1.0204081632653071E-2</v>
+        <v>1.2755102040816309E-2</v>
       </c>
       <c r="S52" s="1">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7306,7 +7318,7 @@
         <v>229</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
         <v>124</v>
@@ -7315,7 +7327,7 @@
         <v>160</v>
       </c>
       <c r="G53" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="H53">
         <v>5042</v>
@@ -7333,30 +7345,30 @@
         <v>294</v>
       </c>
       <c r="P53">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="Q53">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="R53">
         <v>1.2755102040816309E-2</v>
       </c>
       <c r="S53" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>124</v>
@@ -7365,48 +7377,51 @@
         <v>160</v>
       </c>
       <c r="G54" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H54">
-        <v>5042</v>
+        <v>140</v>
       </c>
       <c r="I54">
-        <v>5042</v>
+        <v>140</v>
       </c>
       <c r="J54">
-        <v>5042</v>
+        <v>140</v>
+      </c>
+      <c r="K54" t="s">
+        <v>174</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="O54" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P54">
-        <v>0.5</v>
+        <v>0.81</v>
       </c>
       <c r="Q54">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R54">
-        <v>1.7857142857142846E-2</v>
-      </c>
-      <c r="S54" s="1">
-        <v>0.54</v>
+        <v>0.81</v>
+      </c>
+      <c r="R54" t="s">
+        <v>295</v>
+      </c>
+      <c r="S54">
+        <v>0.81</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>124</v>
@@ -7415,75 +7430,72 @@
         <v>160</v>
       </c>
       <c r="G55" t="s">
-        <v>161</v>
-      </c>
-      <c r="H55">
-        <v>5042</v>
+        <v>182</v>
+      </c>
+      <c r="H55" t="s">
+        <v>251</v>
       </c>
       <c r="I55">
-        <v>5042</v>
+        <v>65</v>
       </c>
       <c r="J55">
-        <v>5042</v>
+        <v>56</v>
+      </c>
+      <c r="K55" t="s">
+        <v>174</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="O55" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P55">
-        <v>0.57999999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="Q55">
-        <v>0.63</v>
-      </c>
-      <c r="R55">
-        <v>1.2755102040816339E-2</v>
+        <v>0.72</v>
+      </c>
+      <c r="R55" t="s">
+        <v>295</v>
       </c>
       <c r="S55">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="G56" t="s">
         <v>182</v>
       </c>
-      <c r="H56" t="s">
-        <v>249</v>
+      <c r="H56">
+        <v>416</v>
       </c>
       <c r="I56">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="J56">
-        <v>259</v>
-      </c>
-      <c r="K56">
-        <v>14</v>
-      </c>
-      <c r="L56">
-        <v>14</v>
-      </c>
-      <c r="M56">
-        <v>5</v>
+        <v>416</v>
+      </c>
+      <c r="K56" t="s">
+        <v>174</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>245</v>
@@ -7492,48 +7504,48 @@
         <v>299</v>
       </c>
       <c r="P56">
-        <v>0.74</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q56">
-        <v>0.74</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R56" t="s">
         <v>295</v>
       </c>
       <c r="S56">
-        <v>0.74</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
         <v>124</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="G57" t="s">
         <v>182</v>
       </c>
       <c r="H57">
-        <v>140</v>
+        <v>416</v>
       </c>
       <c r="I57">
-        <v>140</v>
+        <v>416</v>
       </c>
       <c r="J57">
-        <v>140</v>
+        <v>416</v>
       </c>
       <c r="K57" t="s">
         <v>174</v>
@@ -7545,48 +7557,48 @@
         <v>299</v>
       </c>
       <c r="P57">
-        <v>0.81</v>
+        <v>0.6</v>
       </c>
       <c r="Q57">
-        <v>0.81</v>
+        <v>0.6</v>
       </c>
       <c r="R57" t="s">
         <v>295</v>
       </c>
       <c r="S57">
-        <v>0.81</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
         <v>124</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="G58" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" t="s">
-        <v>251</v>
+        <v>193</v>
+      </c>
+      <c r="H58">
+        <v>416</v>
       </c>
       <c r="I58">
-        <v>65</v>
+        <v>416</v>
       </c>
       <c r="J58">
-        <v>56</v>
+        <v>416</v>
       </c>
       <c r="K58" t="s">
         <v>174</v>
@@ -7598,16 +7610,16 @@
         <v>299</v>
       </c>
       <c r="P58">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="Q58">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="R58" t="s">
         <v>295</v>
       </c>
       <c r="S58">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7621,7 +7633,7 @@
         <v>252</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
         <v>124</v>
@@ -7630,7 +7642,7 @@
         <v>253</v>
       </c>
       <c r="G59" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H59">
         <v>416</v>
@@ -7651,16 +7663,16 @@
         <v>299</v>
       </c>
       <c r="P59">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="Q59">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="R59" t="s">
         <v>295</v>
       </c>
       <c r="S59">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7674,7 +7686,7 @@
         <v>252</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
         <v>124</v>
@@ -7686,13 +7698,13 @@
         <v>182</v>
       </c>
       <c r="H60">
-        <v>416</v>
+        <v>889</v>
       </c>
       <c r="I60">
-        <v>416</v>
+        <v>889</v>
       </c>
       <c r="J60">
-        <v>416</v>
+        <v>889</v>
       </c>
       <c r="K60" t="s">
         <v>174</v>
@@ -7704,19 +7716,19 @@
         <v>299</v>
       </c>
       <c r="P60">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="Q60">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="R60" t="s">
         <v>295</v>
       </c>
       <c r="S60">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -7727,7 +7739,7 @@
         <v>252</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
         <v>124</v>
@@ -7739,13 +7751,13 @@
         <v>193</v>
       </c>
       <c r="H61">
-        <v>416</v>
+        <v>889</v>
       </c>
       <c r="I61">
-        <v>416</v>
+        <v>889</v>
       </c>
       <c r="J61">
-        <v>416</v>
+        <v>889</v>
       </c>
       <c r="K61" t="s">
         <v>174</v>
@@ -7757,48 +7769,48 @@
         <v>299</v>
       </c>
       <c r="P61">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="Q61">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="R61" t="s">
         <v>295</v>
       </c>
       <c r="S61">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>124</v>
       </c>
       <c r="F62" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G62" t="s">
         <v>193</v>
       </c>
       <c r="H62">
-        <v>416</v>
+        <v>645</v>
       </c>
       <c r="I62">
-        <v>416</v>
+        <v>645</v>
       </c>
       <c r="J62">
-        <v>416</v>
+        <v>645</v>
       </c>
       <c r="K62" t="s">
         <v>174</v>
@@ -7807,750 +7819,741 @@
         <v>245</v>
       </c>
       <c r="O62" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P62">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="Q62">
-        <v>0.54</v>
-      </c>
-      <c r="R62" t="s">
+        <v>0.61</v>
+      </c>
+      <c r="R62">
+        <v>5.1020408163265354E-3</v>
+      </c>
+      <c r="S62" t="s">
         <v>295</v>
       </c>
-      <c r="S62">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="G63" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H63">
-        <v>889</v>
+        <v>4983</v>
       </c>
       <c r="I63">
-        <v>889</v>
+        <v>4983</v>
       </c>
       <c r="J63">
-        <v>889</v>
-      </c>
-      <c r="K63" t="s">
-        <v>174</v>
+        <v>4983</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="O63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P63">
-        <v>0.66</v>
+        <v>0.65844000000000003</v>
       </c>
       <c r="Q63">
-        <v>0.66</v>
-      </c>
-      <c r="R63" t="s">
-        <v>295</v>
+        <v>0.70156000000000007</v>
+      </c>
+      <c r="R63">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="S63">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B64">
+        <v>2014</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64">
+        <v>4983</v>
+      </c>
+      <c r="I64">
+        <v>4983</v>
+      </c>
+      <c r="J64">
+        <v>4983</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O64" t="s">
+        <v>296</v>
+      </c>
+      <c r="P64">
+        <v>0.66843999999999992</v>
+      </c>
+      <c r="Q64">
+        <v>0.71155999999999997</v>
+      </c>
+      <c r="R64">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S64">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
         <v>2019</v>
       </c>
-      <c r="C64" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" t="s">
-        <v>253</v>
-      </c>
-      <c r="G64" t="s">
-        <v>193</v>
-      </c>
-      <c r="H64">
-        <v>889</v>
-      </c>
-      <c r="I64">
-        <v>889</v>
-      </c>
-      <c r="J64">
-        <v>889</v>
-      </c>
-      <c r="K64" t="s">
-        <v>174</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O64" t="s">
-        <v>299</v>
-      </c>
-      <c r="P64">
-        <v>0.65</v>
-      </c>
-      <c r="Q64">
-        <v>0.65</v>
-      </c>
-      <c r="R64" t="s">
-        <v>295</v>
-      </c>
-      <c r="S64">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65">
-        <v>2018</v>
-      </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G65" t="s">
-        <v>193</v>
-      </c>
-      <c r="H65">
-        <v>785</v>
+        <v>182</v>
+      </c>
+      <c r="H65" t="s">
+        <v>183</v>
       </c>
       <c r="I65">
-        <v>785</v>
+        <v>6475</v>
       </c>
       <c r="J65">
-        <v>785</v>
+        <v>6405</v>
       </c>
       <c r="K65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="O65" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P65">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="Q65">
         <v>0.67</v>
       </c>
       <c r="R65">
-        <v>2.295918367346941E-2</v>
+        <v>1.0204081632653071E-2</v>
       </c>
       <c r="S65">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G66" t="s">
-        <v>193</v>
-      </c>
-      <c r="H66">
-        <v>785</v>
+        <v>182</v>
+      </c>
+      <c r="H66" t="s">
+        <v>183</v>
       </c>
       <c r="I66">
-        <v>785</v>
+        <v>6475</v>
       </c>
       <c r="J66">
-        <v>785</v>
+        <v>6405</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L66">
-        <v>20</v>
-      </c>
-      <c r="M66">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P66">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="Q66">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="R66">
-        <v>2.5510204081632647E-2</v>
+        <v>1.2755102040816309E-2</v>
       </c>
       <c r="S66">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G67" t="s">
-        <v>193</v>
-      </c>
-      <c r="H67">
-        <v>645</v>
+        <v>182</v>
+      </c>
+      <c r="H67" t="s">
+        <v>183</v>
       </c>
       <c r="I67">
-        <v>645</v>
+        <v>6475</v>
       </c>
       <c r="J67">
-        <v>645</v>
-      </c>
-      <c r="K67" t="s">
-        <v>174</v>
+        <v>6405</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="O67" t="s">
         <v>296</v>
       </c>
       <c r="P67">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="Q67">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="R67">
-        <v>5.1020408163265354E-3</v>
-      </c>
-      <c r="S67" t="s">
-        <v>295</v>
+        <v>1.2755102040816339E-2</v>
+      </c>
+      <c r="S67">
+        <v>0.63</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G68" t="s">
-        <v>172</v>
-      </c>
-      <c r="H68">
-        <v>20085</v>
+        <v>182</v>
+      </c>
+      <c r="H68" t="s">
+        <v>183</v>
       </c>
       <c r="I68">
-        <v>20085</v>
+        <v>6475</v>
       </c>
       <c r="J68">
-        <v>20085</v>
+        <v>6405</v>
       </c>
       <c r="K68">
         <v>18</v>
       </c>
       <c r="L68">
-        <v>22</v>
-      </c>
-      <c r="M68">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>179</v>
       </c>
       <c r="O68" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P68">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="Q68">
-        <v>0.71</v>
-      </c>
-      <c r="R68" t="s">
-        <v>295</v>
+        <v>0.7</v>
+      </c>
+      <c r="R68">
+        <v>1.2755102040816309E-2</v>
       </c>
       <c r="S68">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C69" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G69" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H69">
-        <v>6662</v>
+        <v>3050</v>
       </c>
       <c r="I69">
-        <v>6662</v>
+        <v>3050</v>
       </c>
       <c r="J69">
-        <v>6662</v>
-      </c>
-      <c r="K69">
-        <v>22</v>
-      </c>
-      <c r="L69">
-        <v>26</v>
-      </c>
-      <c r="M69">
-        <v>11</v>
+        <v>3050</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="O69" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P69">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="Q69">
-        <v>0.68</v>
-      </c>
-      <c r="R69">
-        <v>2.295918367346941E-2</v>
+        <v>0.63</v>
+      </c>
+      <c r="R69" t="s">
+        <v>295</v>
       </c>
       <c r="S69">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B70">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C70" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="G70" t="s">
-        <v>161</v>
-      </c>
-      <c r="H70">
-        <v>6662</v>
+        <v>193</v>
+      </c>
+      <c r="H70" t="s">
+        <v>183</v>
       </c>
       <c r="I70">
-        <v>6662</v>
+        <v>6475</v>
       </c>
       <c r="J70">
-        <v>6662</v>
+        <v>6405</v>
       </c>
       <c r="K70">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L70">
-        <v>26</v>
-      </c>
-      <c r="M70">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O70" t="s">
         <v>296</v>
       </c>
       <c r="P70">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="Q70">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="R70">
-        <v>1.2755102040816309E-2</v>
+        <v>1.0204081632653071E-2</v>
       </c>
       <c r="S70">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B71">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C71" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="G71" t="s">
         <v>193</v>
       </c>
       <c r="H71" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="I71">
-        <v>10670</v>
+        <v>6475</v>
       </c>
       <c r="J71">
-        <v>7620</v>
+        <v>6405</v>
       </c>
       <c r="K71">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L71">
-        <v>19</v>
-      </c>
-      <c r="M71">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>179</v>
       </c>
       <c r="O71" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P71">
-        <v>0.59843999999999997</v>
+        <v>0.64</v>
       </c>
       <c r="Q71">
-        <v>0.64156000000000002</v>
+        <v>0.67</v>
       </c>
       <c r="R71">
-        <v>1.0999999999999999E-2</v>
+        <v>7.6530612244898027E-3</v>
       </c>
       <c r="S71">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
         <v>125</v>
       </c>
       <c r="F72" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="G72" t="s">
         <v>193</v>
       </c>
-      <c r="H72">
-        <v>3050</v>
+      <c r="H72" t="s">
+        <v>183</v>
       </c>
       <c r="I72">
-        <v>3050</v>
+        <v>6475</v>
       </c>
       <c r="J72">
-        <v>3050</v>
+        <v>6405</v>
+      </c>
+      <c r="K72">
+        <v>7</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O72" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P72">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="Q72">
         <v>0.63</v>
       </c>
-      <c r="R72" t="s">
-        <v>295</v>
+      <c r="R72">
+        <v>1.0204081632653071E-2</v>
       </c>
       <c r="S72">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G73" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H73">
-        <v>39108</v>
+        <v>935</v>
       </c>
       <c r="I73">
-        <v>39108</v>
+        <v>935</v>
       </c>
       <c r="J73">
-        <v>39108</v>
+        <v>935</v>
       </c>
       <c r="K73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="O73" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P73">
-        <v>0.67300000000000004</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="Q73">
-        <v>0.67300000000000004</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="R73" t="s">
         <v>295</v>
       </c>
       <c r="S73">
-        <v>0.67300000000000004</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G74" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H74">
-        <v>39108</v>
+        <v>935</v>
       </c>
       <c r="I74">
-        <v>39108</v>
+        <v>935</v>
       </c>
       <c r="J74">
-        <v>39108</v>
+        <v>935</v>
       </c>
       <c r="K74">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L74">
-        <v>16</v>
-      </c>
-      <c r="M74">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>169</v>
       </c>
       <c r="O74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P74">
-        <v>0.74199999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="Q74">
-        <v>0.74199999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="R74" t="s">
         <v>295</v>
       </c>
       <c r="S74">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C75" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
         <v>125</v>
       </c>
       <c r="F75" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G75" t="s">
         <v>193</v>
       </c>
-      <c r="H75">
-        <v>1299</v>
+      <c r="H75" t="s">
+        <v>183</v>
       </c>
       <c r="I75">
-        <v>1299</v>
+        <v>6475</v>
       </c>
       <c r="J75">
-        <v>1299</v>
+        <v>6405</v>
       </c>
       <c r="K75">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>179</v>
       </c>
       <c r="O75" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P75">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="Q75">
-        <v>0.59</v>
-      </c>
-      <c r="R75" t="s">
-        <v>295</v>
+        <v>0.67</v>
+      </c>
+      <c r="R75">
+        <v>1.0204081632653071E-2</v>
       </c>
       <c r="S75">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8564,7 +8567,7 @@
         <v>281</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
         <v>125</v>
@@ -8573,7 +8576,7 @@
         <v>242</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H76">
         <v>1299</v>
@@ -8596,16 +8599,16 @@
       <c r="O76" t="s">
         <v>294</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76">
         <v>0.59</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76">
         <v>0.59</v>
       </c>
       <c r="R76" t="s">
         <v>295</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76">
         <v>0.59</v>
       </c>
     </row>
@@ -8620,7 +8623,7 @@
         <v>281</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
         <v>125</v>
@@ -8629,7 +8632,7 @@
         <v>242</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H77">
         <v>1299</v>
@@ -8650,22 +8653,22 @@
         <v>179</v>
       </c>
       <c r="O77" t="s">
-        <v>295</v>
-      </c>
-      <c r="P77" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0.59</v>
       </c>
       <c r="R77" t="s">
         <v>295</v>
       </c>
-      <c r="S77" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S77" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>281</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
         <v>125</v>
@@ -8721,72 +8724,74 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F79" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="G79" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H79">
-        <v>156069</v>
+        <v>1299</v>
       </c>
       <c r="I79">
-        <v>156069</v>
+        <v>1299</v>
       </c>
       <c r="J79">
-        <v>156069</v>
+        <v>1299</v>
       </c>
       <c r="K79">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L79">
-        <v>46</v>
-      </c>
-      <c r="M79">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O79" t="s">
-        <v>294</v>
-      </c>
-      <c r="P79" s="1">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>0.65200000000000002</v>
+        <v>295</v>
+      </c>
+      <c r="P79" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>295</v>
       </c>
       <c r="R79" t="s">
         <v>295</v>
       </c>
-      <c r="S79" s="1">
-        <v>0.65200000000000002</v>
+      <c r="S79" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S79" xr:uid="{6954B251-A24D-4299-AEFF-88EA0488852D}">
     <filterColumn colId="6">
       <filters>
-        <filter val="All-cause graft failure"/>
+        <filter val="All-cause mortality"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:S76">
+      <sortCondition ref="E2:E79"/>
+      <sortCondition ref="C2:C79"/>
+      <sortCondition ref="D2:D79"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12961,21 +12966,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089D5ED9EE65DB540B754B079D91E3302" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec17a5c308376be43256775232b138b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8c30475-6c32-48d0-bf2d-dceab5e3a971" xmlns:ns4="c815e11e-726b-461a-856a-435a266225cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd9e7fbb190edfa10e27309992adf2d9" ns3:_="" ns4:_="">
     <xsd:import namespace="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
@@ -13186,10 +13176,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE4A1983-5249-4927-A5A8-E44FB265B9EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF9573F-9B1E-42E1-81B0-833787485F89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
+    <ds:schemaRef ds:uri="c815e11e-726b-461a-856a-435a266225cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13212,20 +13228,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF9573F-9B1E-42E1-81B0-833787485F89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE4A1983-5249-4927-A5A8-E44FB265B9EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
-    <ds:schemaRef ds:uri="c815e11e-726b-461a-856a-435a266225cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>